--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2305.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2305.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.960170495467866</v>
+        <v>0.9394612908363342</v>
       </c>
       <c r="B1">
-        <v>2.420556608881887</v>
+        <v>1.439923048019409</v>
       </c>
       <c r="C1">
-        <v>2.146441578192482</v>
+        <v>2.572733879089355</v>
       </c>
       <c r="D1">
-        <v>2.357945618086859</v>
+        <v>2.643383264541626</v>
       </c>
       <c r="E1">
-        <v>2.933187662633394</v>
+        <v>1.114669442176819</v>
       </c>
     </row>
   </sheetData>
